--- a/研发部/产品/需要整理的BOM/测试架BOM（待报价）.xlsx
+++ b/研发部/产品/需要整理的BOM/测试架BOM（待报价）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7890" tabRatio="767"/>
+    <workbookView windowWidth="19770" windowHeight="8955" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="BP-K9107W5AA0" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>2K</t>
   </si>
   <si>
-    <t>DZ03V000100</t>
-  </si>
-  <si>
-    <t>100nF/50V±20%  0402</t>
+    <t>DZ03V003500</t>
+  </si>
+  <si>
+    <t>100nF/50V±20%  0603</t>
   </si>
   <si>
     <t>C10，C23</t>
@@ -512,8 +512,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
@@ -521,7 +521,7 @@
     <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -601,11 +601,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -613,6 +608,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,28 +632,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -666,29 +651,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -697,22 +660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -726,7 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,25 +687,17 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,8 +718,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,23 +766,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -831,13 +795,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF0000FF"/>
@@ -845,7 +802,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +823,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,7 +841,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,67 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,19 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,49 +997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,14 +1025,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1113,6 +1064,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="3" tint="0.399945066682943"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.399945066682943"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.399945066682943"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1121,6 +1087,77 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,32 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1178,56 +1189,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,252 +1223,252 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="93">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,89 +1562,41 @@
     <xf numFmtId="41" fontId="7" fillId="3" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1686,10 +1604,7 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1698,37 +1613,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="4" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1743,10 +1655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="54" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1770,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,58 +1691,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="54" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,10 +1736,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1869,8 +1766,8 @@
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="百分比" xfId="14" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
@@ -1892,8 +1789,8 @@
     <cellStyle name="适中" xfId="36" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="常规 2 2 2" xfId="39"/>
-    <cellStyle name="常规 154" xfId="40"/>
+    <cellStyle name="常规 154" xfId="39"/>
+    <cellStyle name="常规 2 2 2" xfId="40"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
@@ -1931,8 +1828,8 @@
     <cellStyle name="常规 32 3" xfId="75"/>
     <cellStyle name="常规 4" xfId="76"/>
     <cellStyle name="常规 5" xfId="77"/>
-    <cellStyle name="注释 2" xfId="78"/>
-    <cellStyle name="常规 6 2" xfId="79"/>
+    <cellStyle name="常规 6 2" xfId="78"/>
+    <cellStyle name="注释 2" xfId="79"/>
     <cellStyle name="超链接 2" xfId="80"/>
     <cellStyle name="强调文字颜色 2 2" xfId="81"/>
     <cellStyle name="强调文字颜色 3 2" xfId="82"/>
@@ -3174,8 +3071,8 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3211,7 +3108,7 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
-      <c r="M1" s="84"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:13">
       <c r="A2" s="10"/>
@@ -3224,10 +3121,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:13">
       <c r="A3" s="24"/>
@@ -3239,11 +3136,11 @@
       <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3287,7 +3184,7 @@
       <c r="M4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="72" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="27" t="s">
@@ -3314,1009 +3211,1009 @@
       <c r="I5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="91">
+      <c r="J5" s="73">
         <v>0</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
       <c r="M5" s="35"/>
-      <c r="N5" s="92">
+      <c r="N5" s="74">
         <v>1.8</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="74">
         <f>N5*J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="36">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="93">
+      <c r="J6" s="75">
         <v>0</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93">
+      <c r="K6" s="75"/>
+      <c r="L6" s="75">
         <v>0</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="94">
+      <c r="M6" s="35"/>
+      <c r="N6" s="76">
         <v>0.01</v>
       </c>
-      <c r="O6" s="94">
+      <c r="O6" s="76">
         <f>L6*N6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="40">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="93">
+      <c r="H7" s="35"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="75">
         <v>2</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="75">
         <v>1</v>
       </c>
-      <c r="L7" s="93">
-        <f>K7*J7</f>
+      <c r="L7" s="75">
+        <f t="shared" ref="L7:L17" si="0">K7*J7</f>
         <v>2</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="78">
         <v>0.022</v>
       </c>
-      <c r="O7" s="94">
-        <f t="shared" ref="O7:O18" si="0">N7*J7</f>
+      <c r="O7" s="76">
+        <f t="shared" ref="O7:O18" si="1">N7*J7</f>
         <v>0.044</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A8" s="43">
+      <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="97">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="75">
         <v>2</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="75">
         <v>1</v>
       </c>
-      <c r="L8" s="97">
-        <f>K8*J8</f>
+      <c r="L8" s="75">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M8" s="98" t="s">
+      <c r="M8" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="96">
+      <c r="N8" s="78">
         <v>0</v>
       </c>
-      <c r="O8" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:15">
-      <c r="A9" s="43">
-        <v>5</v>
-      </c>
-      <c r="B9" s="43">
-        <v>4</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="97">
-        <v>2</v>
-      </c>
-      <c r="K9" s="97">
-        <v>1</v>
-      </c>
-      <c r="L9" s="97">
-        <f>K9*J9</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="96">
-        <v>0.0175</v>
-      </c>
-      <c r="O9" s="94">
-        <f t="shared" si="0"/>
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:15">
-      <c r="A10" s="48">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="97">
-        <v>2</v>
-      </c>
-      <c r="K10" s="97">
-        <v>1</v>
-      </c>
-      <c r="L10" s="97">
-        <f>K10*J10</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="96">
-        <v>0</v>
-      </c>
-      <c r="O10" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:15">
-      <c r="A11" s="43">
-        <v>7</v>
-      </c>
-      <c r="B11" s="43">
-        <v>6</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="97">
-        <v>2</v>
-      </c>
-      <c r="K11" s="97">
-        <v>1</v>
-      </c>
-      <c r="L11" s="97">
-        <f>K11*J11</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="96">
-        <v>0</v>
-      </c>
-      <c r="O11" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:15">
-      <c r="A12" s="48">
-        <v>8</v>
-      </c>
-      <c r="B12" s="43">
-        <v>7</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="97">
-        <v>1</v>
-      </c>
-      <c r="K12" s="97">
-        <v>1</v>
-      </c>
-      <c r="L12" s="97">
-        <f>K12*J12</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="96">
-        <v>0</v>
-      </c>
-      <c r="O12" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:15">
-      <c r="A13" s="43">
-        <v>9</v>
-      </c>
-      <c r="B13" s="43">
-        <v>8</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="97">
-        <v>1</v>
-      </c>
-      <c r="K13" s="97">
-        <v>1</v>
-      </c>
-      <c r="L13" s="97">
-        <f>K13*J13</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="96">
-        <v>0</v>
-      </c>
-      <c r="O13" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:15">
-      <c r="A14" s="48">
-        <v>10</v>
-      </c>
-      <c r="B14" s="43">
-        <v>9</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="97">
-        <v>1</v>
-      </c>
-      <c r="K14" s="97">
-        <v>1</v>
-      </c>
-      <c r="L14" s="97">
-        <f>K14*J14</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="96">
-        <v>0</v>
-      </c>
-      <c r="O14" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="1:15">
-      <c r="A15" s="51">
-        <v>11</v>
-      </c>
-      <c r="B15" s="51">
-        <v>10</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="99">
-        <v>4</v>
-      </c>
-      <c r="K15" s="99">
-        <v>1</v>
-      </c>
-      <c r="L15" s="99">
-        <f>K15*J15</f>
-        <v>4</v>
-      </c>
-      <c r="M15" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="100">
-        <v>0</v>
-      </c>
-      <c r="O15" s="101">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="1:15">
-      <c r="A16" s="51">
-        <v>13</v>
-      </c>
-      <c r="B16" s="51">
-        <v>12</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="99">
-        <v>1</v>
-      </c>
-      <c r="K16" s="99">
-        <v>1</v>
-      </c>
-      <c r="L16" s="99">
-        <f>K16*J16</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="100">
-        <v>0</v>
-      </c>
-      <c r="O16" s="101">
-        <f>N16*J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:15">
-      <c r="A17" s="48">
-        <v>14</v>
-      </c>
-      <c r="B17" s="43">
-        <v>13</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="97">
-        <v>1</v>
-      </c>
-      <c r="K17" s="97">
-        <v>1</v>
-      </c>
-      <c r="L17" s="97">
-        <f>K17*J17</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="96">
-        <v>0.04</v>
-      </c>
-      <c r="O17" s="94">
-        <f>N17*J17</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:15">
-      <c r="A18" s="43">
-        <v>16</v>
-      </c>
-      <c r="B18" s="43">
-        <v>16</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="97">
-        <v>1</v>
-      </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97">
-        <f t="shared" ref="L18:L46" si="1">K18*J18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="94">
-        <v>0</v>
-      </c>
-      <c r="O18" s="94">
-        <f t="shared" ref="O18:O46" si="2">N18*J18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="13" customFormat="1" ht="15" customHeight="1" spans="1:15">
-      <c r="A19" s="51">
-        <v>18</v>
-      </c>
-      <c r="B19" s="51">
-        <v>17</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="99">
-        <v>5</v>
-      </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99">
+      <c r="O8" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="102">
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:15">
+      <c r="A9" s="31">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="75">
+        <v>2</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1</v>
+      </c>
+      <c r="L9" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="78">
+        <v>0.0175</v>
+      </c>
+      <c r="O9" s="76">
+        <f t="shared" si="1"/>
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:15">
+      <c r="A10" s="31">
+        <v>6</v>
+      </c>
+      <c r="B10" s="31">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="75">
+        <v>2</v>
+      </c>
+      <c r="K10" s="75">
+        <v>1</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="78">
         <v>0</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O10" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:15">
+      <c r="A11" s="31">
+        <v>7</v>
+      </c>
+      <c r="B11" s="31">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="75">
+        <v>2</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="78">
+        <v>0</v>
+      </c>
+      <c r="O11" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:15">
+      <c r="A12" s="31">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
+      <c r="K12" s="75">
+        <v>1</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="78">
+        <v>0</v>
+      </c>
+      <c r="O12" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:15">
+      <c r="A13" s="31">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31">
+        <v>8</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="75">
+        <v>1</v>
+      </c>
+      <c r="K13" s="75">
+        <v>1</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="78">
+        <v>0</v>
+      </c>
+      <c r="O13" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:15">
+      <c r="A14" s="31">
+        <v>10</v>
+      </c>
+      <c r="B14" s="31">
+        <v>9</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="75">
+        <v>1</v>
+      </c>
+      <c r="K14" s="75">
+        <v>1</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="78">
+        <v>0</v>
+      </c>
+      <c r="O14" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:15">
+      <c r="A15" s="31">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31">
+        <v>10</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="75">
+        <v>4</v>
+      </c>
+      <c r="K15" s="75">
+        <v>1</v>
+      </c>
+      <c r="L15" s="75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="78">
+        <v>0</v>
+      </c>
+      <c r="O15" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:15">
+      <c r="A16" s="31">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="75">
+        <v>1</v>
+      </c>
+      <c r="K16" s="75">
+        <v>1</v>
+      </c>
+      <c r="L16" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="78">
+        <v>0</v>
+      </c>
+      <c r="O16" s="76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:15">
+      <c r="A17" s="31">
+        <v>14</v>
+      </c>
+      <c r="B17" s="31">
+        <v>13</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="75">
+        <v>1</v>
+      </c>
+      <c r="K17" s="75">
+        <v>1</v>
+      </c>
+      <c r="L17" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0.04</v>
+      </c>
+      <c r="O17" s="76">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="31">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="75">
+        <v>1</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75">
+        <f t="shared" ref="L18:L46" si="2">K18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="76">
+        <v>0</v>
+      </c>
+      <c r="O18" s="76">
+        <f t="shared" ref="O18:O46" si="3">N18*J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="13" customFormat="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="75">
+        <v>5</v>
+      </c>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M19" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="79">
+        <v>0</v>
+      </c>
+      <c r="O19" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:15">
-      <c r="A20" s="43">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="31">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="97">
+      <c r="H20" s="44"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="75">
         <v>1</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="O20" s="94">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M20" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="76">
+        <v>0</v>
+      </c>
+      <c r="O20" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:15">
-      <c r="A21" s="48">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="31">
         <v>19</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="61" t="s">
+      <c r="H21" s="44"/>
+      <c r="I21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="75">
         <v>2</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="103">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
+      <c r="K21" s="75"/>
+      <c r="L21" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M21" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="80">
+        <v>0</v>
+      </c>
+      <c r="O21" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:15">
-      <c r="A22" s="43">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="31">
         <v>20</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="44"/>
+      <c r="I22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="75">
         <v>1</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="104">
-        <v>0</v>
-      </c>
-      <c r="O22" s="94">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M22" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="81">
+        <v>0</v>
+      </c>
+      <c r="O22" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:15">
-      <c r="A23" s="43">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="31">
         <v>22</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="97">
+      <c r="H23" s="44"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="75">
         <v>2</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="104">
-        <v>0</v>
-      </c>
-      <c r="O23" s="94">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M23" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="81">
+        <v>0</v>
+      </c>
+      <c r="O23" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:15">
-      <c r="A24" s="48">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="31">
         <v>21</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="97">
+      <c r="H24" s="44"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="75">
         <v>1</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="75">
         <v>1</v>
       </c>
-      <c r="L24" s="97">
-        <f t="shared" si="1"/>
+      <c r="L24" s="75">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M24" s="98" t="s">
+      <c r="M24" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="104">
+      <c r="N24" s="81">
         <v>0</v>
       </c>
-      <c r="O24" s="94">
+      <c r="O24" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:15">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31">
+        <v>14</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="75">
+        <v>1</v>
+      </c>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:15">
-      <c r="A25" s="43">
-        <v>24</v>
-      </c>
-      <c r="B25" s="43">
-        <v>14</v>
-      </c>
-      <c r="C25" s="57" t="s">
+      <c r="M25" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="81">
+        <v>0</v>
+      </c>
+      <c r="O25" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:15">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31">
+        <v>23</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="D26" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="97">
+      <c r="G26" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="75">
         <v>1</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" s="104">
-        <v>0</v>
-      </c>
-      <c r="O25" s="94">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:15">
-      <c r="A26" s="48">
-        <v>25</v>
-      </c>
-      <c r="B26" s="43">
-        <v>23</v>
-      </c>
-      <c r="C26" s="57" t="s">
+      <c r="M26" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" s="81">
+        <v>0</v>
+      </c>
+      <c r="O26" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:15">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>24</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="97">
-        <v>1</v>
-      </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" s="104">
-        <v>0</v>
-      </c>
-      <c r="O26" s="94">
+      <c r="D27" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="75">
+        <v>4</v>
+      </c>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:15">
-      <c r="A27" s="43">
-        <v>26</v>
-      </c>
-      <c r="B27" s="43">
-        <v>24</v>
-      </c>
-      <c r="C27" s="57" t="s">
+      <c r="M27" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="82">
+        <v>0</v>
+      </c>
+      <c r="O27" s="76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:15">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>25</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="97">
-        <v>4</v>
-      </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97">
-        <f t="shared" si="1"/>
+      <c r="D28" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="75">
+        <v>1</v>
+      </c>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75">
         <v>0</v>
       </c>
-      <c r="M27" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="105">
+      <c r="M28" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="82">
         <v>0</v>
       </c>
-      <c r="O27" s="94">
-        <f t="shared" si="2"/>
+      <c r="O28" s="76">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:15">
-      <c r="A28" s="48">
-        <v>27</v>
-      </c>
-      <c r="B28" s="43">
-        <v>25</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="97">
-        <v>1</v>
-      </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97">
-        <v>0</v>
-      </c>
-      <c r="M28" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="105">
-        <v>0</v>
-      </c>
-      <c r="O28" s="94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="107"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="84"/>
       <c r="N29" s="20" t="s">
         <v>106</v>
       </c>
@@ -4326,155 +4223,157 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="108"/>
-      <c r="J31" s="71" t="s">
+      <c r="I31" s="85"/>
+      <c r="J31" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="109" t="s">
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="86" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="73">
+      <c r="A32" s="55">
         <v>1</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="111"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" customHeight="1" spans="1:13">
-      <c r="A33" s="73">
+      <c r="A33" s="55">
         <v>2</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="111"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="73">
+      <c r="A34" s="55">
         <v>3</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="111"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="36" spans="5:13">
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="112" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="113"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="90"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="76" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="80" t="s">
+      <c r="F37" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="114" t="s">
+      <c r="H37" s="60"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="83"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="65"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="76" t="s">
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="64">
         <v>43167</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="114" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="83"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="65"/>
     </row>
     <row r="39" spans="3:13">
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="83"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M28"/>
+  <autoFilter ref="A4:M28">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B31:F31"/>
@@ -4488,162 +4387,239 @@
     <mergeCell ref="J36:M36"/>
   </mergeCells>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="0" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="815"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="816"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="817" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="818"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="819"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="820"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="821"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="838"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="839"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="840" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="841"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="842"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="843"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="0" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="280"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="277" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="300" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="duplicateValues" dxfId="0" priority="291"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="306" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
     <cfRule type="duplicateValues" dxfId="0" priority="287"/>
     <cfRule type="duplicateValues" dxfId="0" priority="286"/>
     <cfRule type="duplicateValues" dxfId="0" priority="285"/>
     <cfRule type="duplicateValues" dxfId="0" priority="284"/>
     <cfRule type="duplicateValues" dxfId="0" priority="283" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="281"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="duplicateValues" dxfId="0" priority="782"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="783" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="784"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="785"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="786"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="787"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="788"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="789"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="790"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="791"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="792" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="793"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="794"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="795" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="796"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="797"/>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="duplicateValues" dxfId="0" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="289" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="288"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="0" priority="775"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="776"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="777" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="778"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="779"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="780"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="781"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="duplicateValues" dxfId="0" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="272" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="271"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="253" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="duplicateValues" dxfId="0" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="268" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="265"/>
     <cfRule type="duplicateValues" dxfId="0" priority="264"/>
     <cfRule type="duplicateValues" dxfId="0" priority="263"/>
     <cfRule type="duplicateValues" dxfId="0" priority="262"/>
     <cfRule type="duplicateValues" dxfId="0" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="260" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="259" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="267"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="266" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="0" priority="752"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="753"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="754" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="755"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="756"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="757"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="758"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="249" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="230" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="245" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+  <conditionalFormatting sqref="E13">
     <cfRule type="duplicateValues" dxfId="0" priority="240"/>
     <cfRule type="duplicateValues" dxfId="0" priority="239"/>
     <cfRule type="duplicateValues" dxfId="0" priority="238"/>
     <cfRule type="duplicateValues" dxfId="0" priority="237"/>
     <cfRule type="duplicateValues" dxfId="0" priority="236" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="242" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="duplicateValues" dxfId="0" priority="712"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="713" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="715"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="716"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="717"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="718"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="719"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="720"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="721"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="722" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="723"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="724"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="725" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="726"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="727"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="225" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" dxfId="0" priority="678"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="679"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="680" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="681"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="682"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="683"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="duplicateValues" dxfId="0" priority="668"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="669" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="670"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="671"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="672"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="673"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="674"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="675"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="676"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="677"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="duplicateValues" dxfId="0" priority="658"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="659" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="660"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="661"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="662"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="663"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="664"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="665"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="666"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="667"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="duplicateValues" dxfId="0" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="634"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="636"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="637"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="638"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="639"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="640" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="222" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
     <cfRule type="duplicateValues" dxfId="0" priority="217"/>
     <cfRule type="duplicateValues" dxfId="0" priority="216"/>
     <cfRule type="duplicateValues" dxfId="0" priority="215"/>
     <cfRule type="duplicateValues" dxfId="0" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="213" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="212" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="219" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="duplicateValues" dxfId="0" priority="689"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="690" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="691"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="692"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="693"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="694"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="695"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="696"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="697"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="698"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="699" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="700"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="701"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="702" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="703"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="704"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
     <cfRule type="duplicateValues" dxfId="0" priority="210"/>
     <cfRule type="duplicateValues" dxfId="0" priority="209"/>
     <cfRule type="duplicateValues" dxfId="0" priority="208"/>
@@ -4651,301 +4627,233 @@
     <cfRule type="duplicateValues" dxfId="0" priority="206"/>
     <cfRule type="duplicateValues" dxfId="0" priority="205"/>
     <cfRule type="duplicateValues" dxfId="0" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="202" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="0" priority="655"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="656"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="657" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="658"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="659"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="660"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="661"/>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="duplicateValues" dxfId="0" priority="642"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="duplicateValues" dxfId="0" priority="645"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="646" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="647"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="648"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="649"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="650"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="651"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="652"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="653"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="654"/>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="duplicateValues" dxfId="0" priority="616"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="duplicateValues" dxfId="0" priority="635"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="636" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="637"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="638"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="639"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="640"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="641"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="642"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="643"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="644"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="0" priority="610"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="611"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="612"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="613"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="614"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="615"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="616"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="617" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="duplicateValues" dxfId="0" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="199" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="189" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
+  <conditionalFormatting sqref="G20">
     <cfRule type="duplicateValues" dxfId="0" priority="183"/>
     <cfRule type="duplicateValues" dxfId="0" priority="182"/>
     <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="175" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="172" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="duplicateValues" dxfId="0" priority="619"/>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="129" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="124" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="0" priority="593"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
     <cfRule type="duplicateValues" dxfId="0" priority="160"/>
     <cfRule type="duplicateValues" dxfId="0" priority="159"/>
     <cfRule type="duplicateValues" dxfId="0" priority="158"/>
     <cfRule type="duplicateValues" dxfId="0" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="156" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="155"/>
     <cfRule type="duplicateValues" dxfId="0" priority="154"/>
     <cfRule type="duplicateValues" dxfId="0" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="152" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
     <cfRule type="duplicateValues" dxfId="0" priority="151"/>
     <cfRule type="duplicateValues" dxfId="0" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="149" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
     <cfRule type="duplicateValues" dxfId="0" priority="148"/>
     <cfRule type="duplicateValues" dxfId="0" priority="147"/>
     <cfRule type="duplicateValues" dxfId="0" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="145" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="144"/>
     <cfRule type="duplicateValues" dxfId="0" priority="143"/>
     <cfRule type="duplicateValues" dxfId="0" priority="142"/>
     <cfRule type="duplicateValues" dxfId="0" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="106" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="101" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
     <cfRule type="duplicateValues" dxfId="0" priority="140"/>
     <cfRule type="duplicateValues" dxfId="0" priority="139"/>
     <cfRule type="duplicateValues" dxfId="0" priority="138"/>
     <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="136" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="135"/>
     <cfRule type="duplicateValues" dxfId="0" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="133" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="89" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="84" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="122" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="122"/>
     <cfRule type="duplicateValues" dxfId="0" priority="121"/>
     <cfRule type="duplicateValues" dxfId="0" priority="120"/>
     <cfRule type="duplicateValues" dxfId="0" priority="119"/>
     <cfRule type="duplicateValues" dxfId="0" priority="118"/>
     <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="116" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="115"/>
     <cfRule type="duplicateValues" dxfId="0" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="113" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
     <cfRule type="duplicateValues" dxfId="0" priority="112"/>
     <cfRule type="duplicateValues" dxfId="0" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="66" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="61" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="105" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
     <cfRule type="duplicateValues" dxfId="0" priority="100"/>
     <cfRule type="duplicateValues" dxfId="0" priority="99"/>
     <cfRule type="duplicateValues" dxfId="0" priority="98"/>
     <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="96" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="95"/>
     <cfRule type="duplicateValues" dxfId="0" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="93" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="82" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
     <cfRule type="duplicateValues" dxfId="0" priority="81"/>
     <cfRule type="duplicateValues" dxfId="0" priority="80"/>
     <cfRule type="duplicateValues" dxfId="0" priority="79"/>
     <cfRule type="duplicateValues" dxfId="0" priority="78"/>
     <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="76" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="75"/>
     <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="73" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="0" priority="72"/>
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="65" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
     <cfRule type="duplicateValues" dxfId="0" priority="58"/>
     <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
     <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="53" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="duplicateValues" dxfId="0" priority="576"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="578" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="585"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="586"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="587" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="588"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="589"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="592"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="595"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="598" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="599"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="600"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="601"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="602"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="603"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="604"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="duplicateValues" dxfId="0" priority="536" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="541" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="543"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="545"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="0" priority="52"/>
     <cfRule type="duplicateValues" dxfId="0" priority="51"/>
     <cfRule type="duplicateValues" dxfId="0" priority="50"/>
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
     <cfRule type="duplicateValues" dxfId="0" priority="40"/>
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
     <cfRule type="duplicateValues" dxfId="0" priority="38"/>
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
     <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
     <cfRule type="duplicateValues" dxfId="0" priority="32"/>
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="duplicateValues" dxfId="0" priority="553"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="554"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="555" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="556"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="557"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="558"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="559"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="560"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="561"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="562"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="563"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="564" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="565"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="566"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="567"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="568"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="569"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="570"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="571"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="572"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="573"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="574"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="575" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="576"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="577"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="578"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="579"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="580"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="581"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="582"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="0" priority="513" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="514"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="515"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="516"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="517"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="518" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="519"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="520"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="521"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="522"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
     <cfRule type="duplicateValues" dxfId="0" priority="30"/>
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E9 E14:E15 E17 E21:E22 E24 E26:E27 E19 E29:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="822"/>
+  <conditionalFormatting sqref="E1:E5 E14:E15 E17 E21:E22 E24 E26:E27 E19 E29:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="845"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
